--- a/Plancheck/users/Users-IUCT.xlsx
+++ b/Plancheck/users/Users-IUCT.xlsx
@@ -798,7 +798,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,7 +920,7 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
         <v>60</v>

--- a/Plancheck/users/Users-IUCT.xlsx
+++ b/Plancheck/users/Users-IUCT.xlsx
@@ -186,9 +186,6 @@
     <t>Eliane</t>
   </si>
   <si>
-    <t>Graulières</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -463,6 +460,9 @@
   </si>
   <si>
     <t>SpringGreen</t>
+  </si>
+  <si>
+    <t>Graulieres</t>
   </si>
 </sst>
 </file>
@@ -798,7 +798,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,10 +874,10 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
         <v>60</v>
-      </c>
-      <c r="G3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -897,10 +897,10 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -920,10 +920,10 @@
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -943,10 +943,10 @@
         <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -966,10 +966,10 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -989,10 +989,10 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1012,10 +1012,10 @@
         <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1035,10 +1035,10 @@
         <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,10 +1058,10 @@
         <v>28</v>
       </c>
       <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
         <v>118</v>
-      </c>
-      <c r="G11" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1072,7 +1072,7 @@
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
@@ -1081,10 +1081,10 @@
         <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
         <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
         <v>47</v>
@@ -1104,10 +1104,10 @@
         <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1115,7 +1115,7 @@
         <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
@@ -1127,10 +1127,10 @@
         <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1150,10 +1150,10 @@
         <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1161,7 +1161,7 @@
         <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" t="s">
         <v>50</v>
@@ -1173,10 +1173,10 @@
         <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,7 +1184,7 @@
         <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>51</v>
@@ -1196,21 +1196,21 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" t="s">
         <v>79</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>25</v>
@@ -1219,21 +1219,21 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D19" t="s">
         <v>26</v>
@@ -1242,21 +1242,21 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D20" t="s">
         <v>25</v>
@@ -1265,21 +1265,21 @@
         <v>29</v>
       </c>
       <c r="F20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" t="s">
         <v>25</v>
@@ -1288,21 +1288,21 @@
         <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D22" t="s">
         <v>26</v>
@@ -1319,13 +1319,13 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" t="s">
         <v>25</v>
@@ -1334,21 +1334,21 @@
         <v>29</v>
       </c>
       <c r="F23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" t="s">
         <v>26</v>
@@ -1357,21 +1357,21 @@
         <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" t="s">
         <v>25</v>
@@ -1380,21 +1380,21 @@
         <v>29</v>
       </c>
       <c r="F25" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C26" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
         <v>25</v>
@@ -1403,21 +1403,21 @@
         <v>29</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D27" t="s">
         <v>26</v>
@@ -1426,21 +1426,21 @@
         <v>29</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
         <v>25</v>
@@ -1449,21 +1449,21 @@
         <v>29</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G28" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>25</v>
@@ -1472,21 +1472,21 @@
         <v>29</v>
       </c>
       <c r="F29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
         <v>25</v>
@@ -1495,21 +1495,21 @@
         <v>29</v>
       </c>
       <c r="F30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
         <v>25</v>
@@ -1518,21 +1518,21 @@
         <v>29</v>
       </c>
       <c r="F31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
         <v>25</v>
@@ -1541,21 +1541,21 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G32" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D33" t="s">
         <v>25</v>
@@ -1564,21 +1564,21 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
@@ -1587,10 +1587,10 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
+        <v>59</v>
+      </c>
+      <c r="G34" t="s">
         <v>60</v>
-      </c>
-      <c r="G34" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
